--- a/publipostage/03mkjjy25/liste_essais_cliniques_identifies_03mkjjy25.xlsx
+++ b/publipostage/03mkjjy25/liste_essais_cliniques_identifies_03mkjjy25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,32 +493,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT00148278</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2005</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Prospective, Multicenter, Randomized, Double-Blind Study Comparing Safety and Efficacy of Norepinephrine Plus Dobutamine Versus Epinephrine Alone in Septic Shock.</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>CATS</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -525,28 +535,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT00167609</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Phase 3 Study of Oral Dehydroepiandrosterone (DHEA) in Adults With Myotonic Dystrophy</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -558,28 +573,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT00978783</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Speech Effects of a Speaking Valve Versus External PEEP in Tracheostomized Ventilator-Dependent Neuromuscular Patients</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -591,32 +611,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT00320099</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Phase 3 Study of Corticotherapy (Hydrocortisone Alone Versus Hydrocortisone Plus Fludrocortisone) Versus Corticotherapy Plus Intensive Insulin Therapy for Septic Shock</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>COIITSS</t>
         </is>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -628,28 +653,33 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>NCT00167622</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Efficacy and Safety of Preventive Mechanical Ventilation in Adults With Guillain Barré Syndrome</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -661,32 +691,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>NCT01479959</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Determination of Optimal PEEP Level Under Patient Control in Tracheostomized Ventilated Patients</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>OptiPEP</t>
         </is>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -698,28 +733,33 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>NCT00318942</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>CRISTAL: Colloids Compared to Crystalloids in Fluid Resuscitation of Critically Ill Patients: A Multinational Randomised Controlled Trial</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -731,32 +771,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>NCT00625209</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Phase III of Recombinant Human Activated Protein C and Low Dose of Hydrocortisone and Fludrocortisone in Adult Septic Shock</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>APROCCHS</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
         <v>1</v>
       </c>
     </row>

--- a/publipostage/03mkjjy25/liste_essais_cliniques_identifies_03mkjjy25.xlsx
+++ b/publipostage/03mkjjy25/liste_essais_cliniques_identifies_03mkjjy25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,11 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -564,6 +574,11 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -602,6 +617,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -644,6 +664,11 @@
       <c r="J5" t="b">
         <v>1</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -682,6 +707,11 @@
       <c r="J6" t="b">
         <v>1</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -724,6 +754,11 @@
       <c r="J7" t="b">
         <v>1</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -762,6 +797,11 @@
       <c r="J8" t="b">
         <v>1</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -803,6 +843,11 @@
       </c>
       <c r="J9" t="b">
         <v>1</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
       </c>
     </row>
   </sheetData>
